--- a/apps/nuxt/i18n/locales/i18n.xlsx
+++ b/apps/nuxt/i18n/locales/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7665" uniqueCount="7208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7665" uniqueCount="7184">
   <si>
     <t>key</t>
   </si>
@@ -21181,46 +21181,10 @@
     <t>qa10_q1</t>
   </si>
   <si>
-    <t>平板可以使用，但使用蓝牙键盘体验会更好，毕竟系统自带的虚拟键盘占了1/3的屏幕空间，比较影响观感</t>
-  </si>
-  <si>
-    <t>Tablets can be used, but using a Bluetooth keyboard provides a better experience since the built-in virtual keyboard takes up 1/3 of the screen space.</t>
-  </si>
-  <si>
-    <t>タブレットは使用できますが、内蔵の仮想キーボードは画面の1/3を占めるため、Bluetoothキーボードを使用するとより良い体験が得られます。</t>
-  </si>
-  <si>
-    <t>태블릿을 사용할 수 있지만, 내장 가상 키보드가 화면 공간의 1/3을 차지하므로 블루투스 키보드를 사용하면 더 나은 경험을 제공합니다.</t>
-  </si>
-  <si>
-    <t>Las tabletas se pueden usar, pero usar un teclado Bluetooth proporciona una mejor experiencia.</t>
-  </si>
-  <si>
-    <t>Tablets podem ser usados, mas usar um teclado Bluetooth proporciona uma melhor experiência.</t>
-  </si>
-  <si>
-    <t>Tablets können verwendet werden, aber die Verwendung einer Bluetooth-Tastatur bietet ein besseres Erlebnis.</t>
-  </si>
-  <si>
-    <t>Les tablettes peuvent être utilisées, mais l'utilisation d'un clavier Bluetooth offre une meilleure expérience.</t>
-  </si>
-  <si>
-    <t>Планшеты можно использовать, но использование Bluetooth-клавиатуры обеспечивает лучший опыт.</t>
-  </si>
-  <si>
-    <t>แท็บเล็ตสามารถใช้ได้ แต่การใช้คีย์บอร์ดบลูทูธจะให้ประสบการณ์ที่ดีกว่า</t>
-  </si>
-  <si>
-    <t>Máy tính bảng có thể sử dụng, nhưng sử dụng bàn phím Bluetooth mang lại trải nghiệm tốt hơn.</t>
-  </si>
-  <si>
-    <t>Tablet dapat digunakan, tetapi menggunakan keyboard Bluetooth memberikan pengalaman yang lebih baik.</t>
-  </si>
-  <si>
-    <t>Планшети можна використовувати, але використання Bluetooth-клавіатури забезпечує кращий досвід.</t>
-  </si>
-  <si>
-    <t>平板可以使用，但使用蓝牙鍵盤体驗会更好，毕竟繫統自带的虚拟鍵盤占了1/3的屏幕空間，比较影響观感</t>
+    <t>只支持用蓝牙连接实体键盘使用/3的屏幕空间，比较影响观感</t>
+  </si>
+  <si>
+    <t>Only supports connection to physical keyboards via Bluetooth</t>
   </si>
   <si>
     <t>qa10_q2</t>
@@ -21316,46 +21280,10 @@
     <t>qa11_q</t>
   </si>
   <si>
-    <t>手机可以使用，但暂时未进行其针对优化，使用起来可能会有不方便的地方，还是建议在电脑或平板上用</t>
-  </si>
-  <si>
-    <t>Phones can be used, but optimization for phones has not been done yet. It is recommended to use on a computer or tablet.</t>
-  </si>
-  <si>
-    <t>スマートフォンは使用できますが、まだ最適化されていません。パソコンやタブレットでの使用をお勧めします。</t>
-  </si>
-  <si>
-    <t>휴대폰을 사용할 수 있지만, 휴대폰 최적화가 아직 이루어지지 않았습니다. 컴퓨터나 태블릿에서 사용하는 것이 좋습니다.</t>
-  </si>
-  <si>
-    <t>Los teléfonos se pueden usar, pero la optimización para teléfonos aún no se ha realizado. Se recomienda usar en una computadora o tableta.</t>
-  </si>
-  <si>
-    <t>Celulares podem ser usados, mas a otimização para celulares ainda não foi feita. É recomendado usar em um computador ou tablet.</t>
-  </si>
-  <si>
-    <t>Handys können verwendet werden, aber die Optimierung wurde noch nicht durchgeführt. Es wird empfohlen, es auf einem Computer oder Tablet zu verwenden.</t>
-  </si>
-  <si>
-    <t>Les téléphones peuvent être utilisés, mais l'optimisation n'a pas encore été effectuée. Il est recommandé d'utiliser sur un ordinateur ou une tablette.</t>
-  </si>
-  <si>
-    <t>Телефоны можно использовать, но оптимизация еще не выполнена. Рекомендуется использовать на компьютере или планшете.</t>
-  </si>
-  <si>
-    <t>โทรศัพท์สามารถใช้ได้ แต่ยังไม่มีการปรับให้เหมาะสม ยังคงแนะนำให้ใช้บนคอมพิวเตอร์หรือแท็บเล็ต</t>
-  </si>
-  <si>
-    <t>Điện thoại có thể sử dụng, nhưng tối ưu hóa chưa được thực hiện. Vẫn khuyến nghị sử dụng trên máy tính hoặc máy tính bảng.</t>
-  </si>
-  <si>
-    <t>Ponsel dapat digunakan, tetapi optimisasi belum dilakukan. Masih disarankan untuk menggunakan di komputer atau tablet.</t>
-  </si>
-  <si>
-    <t>Телефони можна використовувати, але оптимізація ще не виконана. Рекомендується використовувати на комп'ютері або планшеті.</t>
-  </si>
-  <si>
-    <t>手機可以使用，但暫時未進行其针對优化，使用起来可能会有不方便的地方，還是建議在電腦或平板上用</t>
+    <t>不支持</t>
+  </si>
+  <si>
+    <t>non-supported</t>
   </si>
   <si>
     <t>qa12_a</t>
@@ -22673,12 +22601,12 @@
   <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q256" sqref="Q256"/>
+      <selection pane="bottomLeft" activeCell="L517" sqref="L516:L517"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
@@ -46194,517 +46122,517 @@
         <v>7047</v>
       </c>
       <c r="D501" t="s">
-        <v>7048</v>
+        <v>7047</v>
       </c>
       <c r="E501" t="s">
-        <v>7049</v>
+        <v>7047</v>
       </c>
       <c r="F501" t="s">
-        <v>7050</v>
+        <v>7047</v>
       </c>
       <c r="G501" t="s">
-        <v>7051</v>
+        <v>7047</v>
       </c>
       <c r="H501" t="s">
-        <v>7052</v>
+        <v>7047</v>
       </c>
       <c r="I501" t="s">
-        <v>7053</v>
+        <v>7047</v>
       </c>
       <c r="J501" t="s">
-        <v>7054</v>
+        <v>7047</v>
       </c>
       <c r="K501" t="s">
-        <v>7055</v>
+        <v>7047</v>
       </c>
       <c r="L501" t="s">
-        <v>7056</v>
+        <v>7047</v>
       </c>
       <c r="M501" t="s">
-        <v>7057</v>
+        <v>7047</v>
       </c>
       <c r="N501" t="s">
-        <v>7058</v>
+        <v>7047</v>
       </c>
       <c r="O501" t="s">
-        <v>7059</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="502" spans="1:15">
       <c r="A502" t="s">
+        <v>7048</v>
+      </c>
+      <c r="B502" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C502" t="s">
+        <v>7050</v>
+      </c>
+      <c r="D502" t="s">
+        <v>7051</v>
+      </c>
+      <c r="E502" t="s">
+        <v>7052</v>
+      </c>
+      <c r="F502" t="s">
+        <v>7053</v>
+      </c>
+      <c r="G502" t="s">
+        <v>7054</v>
+      </c>
+      <c r="H502" t="s">
+        <v>7055</v>
+      </c>
+      <c r="I502" t="s">
+        <v>7056</v>
+      </c>
+      <c r="J502" t="s">
+        <v>7057</v>
+      </c>
+      <c r="K502" t="s">
+        <v>7058</v>
+      </c>
+      <c r="L502" t="s">
+        <v>7059</v>
+      </c>
+      <c r="M502" t="s">
         <v>7060</v>
       </c>
-      <c r="B502" t="s">
+      <c r="N502" t="s">
         <v>7061</v>
       </c>
-      <c r="C502" t="s">
+      <c r="O502" t="s">
         <v>7062</v>
-      </c>
-      <c r="D502" t="s">
-        <v>7063</v>
-      </c>
-      <c r="E502" t="s">
-        <v>7064</v>
-      </c>
-      <c r="F502" t="s">
-        <v>7065</v>
-      </c>
-      <c r="G502" t="s">
-        <v>7066</v>
-      </c>
-      <c r="H502" t="s">
-        <v>7067</v>
-      </c>
-      <c r="I502" t="s">
-        <v>7068</v>
-      </c>
-      <c r="J502" t="s">
-        <v>7069</v>
-      </c>
-      <c r="K502" t="s">
-        <v>7070</v>
-      </c>
-      <c r="L502" t="s">
-        <v>7071</v>
-      </c>
-      <c r="M502" t="s">
-        <v>7072</v>
-      </c>
-      <c r="N502" t="s">
-        <v>7073</v>
-      </c>
-      <c r="O502" t="s">
-        <v>7074</v>
       </c>
     </row>
     <row r="503" spans="1:15">
       <c r="A503" t="s">
+        <v>7063</v>
+      </c>
+      <c r="B503" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C503" t="s">
+        <v>7065</v>
+      </c>
+      <c r="D503" t="s">
+        <v>7066</v>
+      </c>
+      <c r="E503" t="s">
+        <v>7067</v>
+      </c>
+      <c r="F503" t="s">
+        <v>7068</v>
+      </c>
+      <c r="G503" t="s">
+        <v>7069</v>
+      </c>
+      <c r="H503" t="s">
+        <v>7070</v>
+      </c>
+      <c r="I503" t="s">
+        <v>7071</v>
+      </c>
+      <c r="J503" t="s">
+        <v>7072</v>
+      </c>
+      <c r="K503" t="s">
+        <v>7073</v>
+      </c>
+      <c r="L503" t="s">
+        <v>7074</v>
+      </c>
+      <c r="M503" t="s">
         <v>7075</v>
       </c>
-      <c r="B503" t="s">
+      <c r="N503" t="s">
         <v>7076</v>
       </c>
-      <c r="C503" t="s">
+      <c r="O503" t="s">
         <v>7077</v>
-      </c>
-      <c r="D503" t="s">
-        <v>7078</v>
-      </c>
-      <c r="E503" t="s">
-        <v>7079</v>
-      </c>
-      <c r="F503" t="s">
-        <v>7080</v>
-      </c>
-      <c r="G503" t="s">
-        <v>7081</v>
-      </c>
-      <c r="H503" t="s">
-        <v>7082</v>
-      </c>
-      <c r="I503" t="s">
-        <v>7083</v>
-      </c>
-      <c r="J503" t="s">
-        <v>7084</v>
-      </c>
-      <c r="K503" t="s">
-        <v>7085</v>
-      </c>
-      <c r="L503" t="s">
-        <v>7086</v>
-      </c>
-      <c r="M503" t="s">
-        <v>7087</v>
-      </c>
-      <c r="N503" t="s">
-        <v>7088</v>
-      </c>
-      <c r="O503" t="s">
-        <v>7089</v>
       </c>
     </row>
     <row r="504" spans="1:15">
       <c r="A504" t="s">
-        <v>7090</v>
+        <v>7078</v>
       </c>
       <c r="B504" t="s">
-        <v>7091</v>
+        <v>7079</v>
       </c>
       <c r="C504" t="s">
-        <v>7092</v>
+        <v>7080</v>
       </c>
       <c r="D504" t="s">
-        <v>7093</v>
+        <v>7080</v>
       </c>
       <c r="E504" t="s">
-        <v>7094</v>
+        <v>7080</v>
       </c>
       <c r="F504" t="s">
-        <v>7095</v>
+        <v>7080</v>
       </c>
       <c r="G504" t="s">
-        <v>7096</v>
+        <v>7080</v>
       </c>
       <c r="H504" t="s">
-        <v>7097</v>
+        <v>7080</v>
       </c>
       <c r="I504" t="s">
-        <v>7098</v>
+        <v>7080</v>
       </c>
       <c r="J504" t="s">
-        <v>7099</v>
+        <v>7080</v>
       </c>
       <c r="K504" t="s">
-        <v>7100</v>
+        <v>7080</v>
       </c>
       <c r="L504" t="s">
-        <v>7101</v>
+        <v>7080</v>
       </c>
       <c r="M504" t="s">
-        <v>7102</v>
+        <v>7080</v>
       </c>
       <c r="N504" t="s">
-        <v>7103</v>
+        <v>7080</v>
       </c>
       <c r="O504" t="s">
-        <v>7104</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="505" spans="1:15">
       <c r="A505" t="s">
-        <v>7105</v>
+        <v>7081</v>
       </c>
       <c r="B505" t="s">
-        <v>7106</v>
+        <v>7082</v>
       </c>
       <c r="C505" t="s">
-        <v>7107</v>
+        <v>7083</v>
       </c>
       <c r="D505" t="s">
-        <v>7108</v>
+        <v>7084</v>
       </c>
       <c r="E505" t="s">
-        <v>7109</v>
+        <v>7085</v>
       </c>
       <c r="F505" t="s">
-        <v>7110</v>
+        <v>7086</v>
       </c>
       <c r="G505" t="s">
-        <v>7111</v>
+        <v>7087</v>
       </c>
       <c r="H505" t="s">
-        <v>7112</v>
+        <v>7088</v>
       </c>
       <c r="I505" t="s">
-        <v>7113</v>
+        <v>7089</v>
       </c>
       <c r="J505" t="s">
-        <v>7114</v>
+        <v>7090</v>
       </c>
       <c r="K505" t="s">
-        <v>7115</v>
+        <v>7091</v>
       </c>
       <c r="L505" t="s">
-        <v>7116</v>
+        <v>7092</v>
       </c>
       <c r="M505" t="s">
-        <v>7117</v>
+        <v>7093</v>
       </c>
       <c r="N505" t="s">
-        <v>7118</v>
+        <v>7094</v>
       </c>
       <c r="O505" t="s">
-        <v>7106</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="506" spans="1:15">
       <c r="A506" t="s">
-        <v>7119</v>
+        <v>7095</v>
       </c>
       <c r="B506" t="s">
-        <v>7120</v>
+        <v>7096</v>
       </c>
       <c r="C506" t="s">
-        <v>7121</v>
+        <v>7097</v>
       </c>
       <c r="D506" t="s">
-        <v>7122</v>
+        <v>7098</v>
       </c>
       <c r="E506" t="s">
-        <v>7123</v>
+        <v>7099</v>
       </c>
       <c r="F506" t="s">
-        <v>7124</v>
+        <v>7100</v>
       </c>
       <c r="G506" t="s">
-        <v>7125</v>
+        <v>7101</v>
       </c>
       <c r="H506" t="s">
-        <v>7126</v>
+        <v>7102</v>
       </c>
       <c r="I506" t="s">
-        <v>7127</v>
+        <v>7103</v>
       </c>
       <c r="J506" t="s">
-        <v>7128</v>
+        <v>7104</v>
       </c>
       <c r="K506" t="s">
-        <v>7129</v>
+        <v>7105</v>
       </c>
       <c r="L506" t="s">
-        <v>7130</v>
+        <v>7106</v>
       </c>
       <c r="M506" t="s">
-        <v>7131</v>
+        <v>7107</v>
       </c>
       <c r="N506" t="s">
-        <v>7132</v>
+        <v>7108</v>
       </c>
       <c r="O506" t="s">
-        <v>7133</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="507" spans="1:15">
       <c r="A507" t="s">
-        <v>7134</v>
+        <v>7110</v>
       </c>
       <c r="B507" t="s">
-        <v>7135</v>
+        <v>7111</v>
       </c>
       <c r="C507" t="s">
-        <v>7136</v>
+        <v>7112</v>
       </c>
       <c r="D507" t="s">
-        <v>7137</v>
+        <v>7113</v>
       </c>
       <c r="E507" t="s">
-        <v>7138</v>
+        <v>7114</v>
       </c>
       <c r="F507" t="s">
-        <v>7139</v>
+        <v>7115</v>
       </c>
       <c r="G507" t="s">
-        <v>7140</v>
+        <v>7116</v>
       </c>
       <c r="H507" t="s">
-        <v>7141</v>
+        <v>7117</v>
       </c>
       <c r="I507" t="s">
-        <v>7142</v>
+        <v>7118</v>
       </c>
       <c r="J507" t="s">
-        <v>7143</v>
+        <v>7119</v>
       </c>
       <c r="K507" t="s">
-        <v>7144</v>
+        <v>7120</v>
       </c>
       <c r="L507" t="s">
-        <v>7145</v>
+        <v>7121</v>
       </c>
       <c r="M507" t="s">
-        <v>7146</v>
+        <v>7122</v>
       </c>
       <c r="N507" t="s">
-        <v>7147</v>
+        <v>7123</v>
       </c>
       <c r="O507" t="s">
-        <v>7148</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="508" spans="1:15">
       <c r="A508" t="s">
-        <v>7149</v>
+        <v>7125</v>
       </c>
       <c r="B508" t="s">
-        <v>7150</v>
+        <v>7126</v>
       </c>
       <c r="C508" t="s">
-        <v>7151</v>
+        <v>7127</v>
       </c>
       <c r="D508" t="s">
-        <v>7152</v>
+        <v>7128</v>
       </c>
       <c r="E508" t="s">
-        <v>7153</v>
+        <v>7129</v>
       </c>
       <c r="F508" t="s">
-        <v>7154</v>
+        <v>7130</v>
       </c>
       <c r="G508" t="s">
-        <v>7155</v>
+        <v>7131</v>
       </c>
       <c r="H508" t="s">
-        <v>7156</v>
+        <v>7132</v>
       </c>
       <c r="I508" t="s">
-        <v>7157</v>
+        <v>7133</v>
       </c>
       <c r="J508" t="s">
-        <v>7158</v>
+        <v>7134</v>
       </c>
       <c r="K508" t="s">
-        <v>7159</v>
+        <v>7135</v>
       </c>
       <c r="L508" t="s">
-        <v>7160</v>
+        <v>7136</v>
       </c>
       <c r="M508" t="s">
-        <v>7161</v>
+        <v>7137</v>
       </c>
       <c r="N508" t="s">
-        <v>7162</v>
+        <v>7138</v>
       </c>
       <c r="O508" t="s">
-        <v>7163</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="509" spans="1:15">
       <c r="A509" t="s">
-        <v>7164</v>
+        <v>7140</v>
       </c>
       <c r="B509" t="s">
-        <v>7165</v>
+        <v>7141</v>
       </c>
       <c r="C509" t="s">
-        <v>7166</v>
+        <v>7142</v>
       </c>
       <c r="D509" t="s">
-        <v>7167</v>
+        <v>7143</v>
       </c>
       <c r="E509" t="s">
-        <v>7168</v>
+        <v>7144</v>
       </c>
       <c r="F509" t="s">
-        <v>7169</v>
+        <v>7145</v>
       </c>
       <c r="G509" t="s">
-        <v>7170</v>
+        <v>7146</v>
       </c>
       <c r="H509" t="s">
-        <v>7171</v>
+        <v>7147</v>
       </c>
       <c r="I509" t="s">
-        <v>7172</v>
+        <v>7148</v>
       </c>
       <c r="J509" t="s">
-        <v>7173</v>
+        <v>7149</v>
       </c>
       <c r="K509" t="s">
-        <v>7174</v>
+        <v>7150</v>
       </c>
       <c r="L509" t="s">
-        <v>7175</v>
+        <v>7151</v>
       </c>
       <c r="M509" t="s">
-        <v>7176</v>
+        <v>7152</v>
       </c>
       <c r="N509" t="s">
-        <v>7177</v>
+        <v>7153</v>
       </c>
       <c r="O509" t="s">
-        <v>7178</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="510" spans="1:15">
       <c r="A510" t="s">
-        <v>7179</v>
+        <v>7155</v>
       </c>
       <c r="B510" t="s">
-        <v>7180</v>
+        <v>7156</v>
       </c>
       <c r="C510" t="s">
-        <v>7181</v>
+        <v>7157</v>
       </c>
       <c r="D510" t="s">
-        <v>7182</v>
+        <v>7158</v>
       </c>
       <c r="E510" t="s">
-        <v>7183</v>
+        <v>7159</v>
       </c>
       <c r="F510" t="s">
-        <v>7184</v>
+        <v>7160</v>
       </c>
       <c r="G510" t="s">
-        <v>7185</v>
+        <v>7161</v>
       </c>
       <c r="H510" t="s">
-        <v>7186</v>
+        <v>7162</v>
       </c>
       <c r="I510" t="s">
-        <v>7187</v>
+        <v>7163</v>
       </c>
       <c r="J510" t="s">
-        <v>7188</v>
+        <v>7164</v>
       </c>
       <c r="K510" t="s">
-        <v>7189</v>
+        <v>7165</v>
       </c>
       <c r="L510" t="s">
-        <v>7190</v>
+        <v>7166</v>
       </c>
       <c r="M510" t="s">
-        <v>7191</v>
+        <v>7167</v>
       </c>
       <c r="N510" t="s">
-        <v>7192</v>
+        <v>7168</v>
       </c>
       <c r="O510" t="s">
-        <v>7193</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="511" spans="1:15">
       <c r="A511" t="s">
-        <v>7194</v>
+        <v>7170</v>
       </c>
       <c r="B511" t="s">
-        <v>7195</v>
+        <v>7171</v>
       </c>
       <c r="C511" t="s">
-        <v>7196</v>
+        <v>7172</v>
       </c>
       <c r="D511" t="s">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="E511" t="s">
-        <v>7198</v>
+        <v>7174</v>
       </c>
       <c r="F511" t="s">
-        <v>7199</v>
+        <v>7175</v>
       </c>
       <c r="G511" t="s">
-        <v>7200</v>
+        <v>7176</v>
       </c>
       <c r="H511" t="s">
-        <v>7201</v>
+        <v>7177</v>
       </c>
       <c r="I511" t="s">
-        <v>7202</v>
+        <v>7178</v>
       </c>
       <c r="J511" t="s">
-        <v>7203</v>
+        <v>7179</v>
       </c>
       <c r="K511" t="s">
-        <v>7204</v>
+        <v>7180</v>
       </c>
       <c r="L511" t="s">
-        <v>7205</v>
+        <v>7181</v>
       </c>
       <c r="M511" t="s">
-        <v>7206</v>
+        <v>7182</v>
       </c>
       <c r="N511" t="s">
-        <v>7207</v>
+        <v>7183</v>
       </c>
       <c r="O511" t="s">
-        <v>7195</v>
+        <v>7171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A254:O511 A1:O252 A253" numberStoredAsText="1"/>
+    <ignoredError sqref="A253 A1:O252 A254:O500 A501 A502:O503 A504 A505:O511" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>